--- a/10-arquivos-excel/aula-tabela-dinamica.xlsx
+++ b/10-arquivos-excel/aula-tabela-dinamica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\wokspaces\start\ExcelAvançado\10-arquivos-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1038C1E8-00A3-49B7-B5B4-173606D5A681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177A5764-DBB5-4183-9CD9-C4BA6C772DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{B629437A-2468-457B-AA2D-5F8F78A4829E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B629437A-2468-457B-AA2D-5F8F78A4829E}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório Vendas" sheetId="2" r:id="rId1"/>
@@ -19,13 +19,24 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BaseDados!$A$1:$G$2101</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -185,54 +196,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -411,6 +374,54 @@
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -427,7 +438,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ferreira, Pollyana Oliveira Martins" refreshedDate="45049.731258101849" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="2100" xr:uid="{51CBE4B9-68D4-442E-9E03-DF3EC4E010CD}">
   <cacheSource type="worksheet">
-    <worksheetSource name="tbVendas"/>
+    <worksheetSource name="TBVendas"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="DATA" numFmtId="14">
@@ -19383,7 +19394,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF327332-B579-4594-8496-8AE302DDA913}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF327332-B579-4594-8496-8AE302DDA913}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:F19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="14" showAll="0"/>
@@ -19507,16 +19518,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{898E6250-1439-41CD-8CF4-194DD14A5528}" name="tbVendas" displayName="tbVendas" ref="A1:G2101" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{898E6250-1439-41CD-8CF4-194DD14A5528}" name="TBVendas" displayName="TBVendas" ref="A1:G2101" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G2101" xr:uid="{898E6250-1439-41CD-8CF4-194DD14A5528}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{73E76661-BEAF-4213-99C9-F98EADFAC8CA}" name="DATA" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{6ABD4BFC-1EB7-42F4-AF8B-B2DA5659120B}" name="LOJA" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{5A660DE1-09F7-49AC-A496-2D54B7E1C867}" name="CATEGORIA" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{F09F716C-78DA-41E2-953E-29A77479CFA0}" name="GÊNERO" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{B5A4FADF-5B7B-45DF-BCAD-543402798871}" name="VOLUME" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{460DC08D-5947-4A34-8CE7-BAD680482329}" name="VALOR" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{8A33BE4F-B2C5-47EB-91DB-20E030301E38}" name="FORMA DE PAGAMENTO" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{73E76661-BEAF-4213-99C9-F98EADFAC8CA}" name="DATA" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{6ABD4BFC-1EB7-42F4-AF8B-B2DA5659120B}" name="LOJA" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{5A660DE1-09F7-49AC-A496-2D54B7E1C867}" name="CATEGORIA" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{F09F716C-78DA-41E2-953E-29A77479CFA0}" name="GÊNERO" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{B5A4FADF-5B7B-45DF-BCAD-543402798871}" name="VOLUME" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{460DC08D-5947-4A34-8CE7-BAD680482329}" name="VALOR" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{8A33BE4F-B2C5-47EB-91DB-20E030301E38}" name="FORMA DE PAGAMENTO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -19821,8 +19832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E64A92-3BCF-4316-BD76-8FA4F9547122}">
   <dimension ref="A3:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20140,8 +20151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63735117-30DA-4C3D-BC1A-D2C6F095D05E}">
   <dimension ref="A1:G2101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
